--- a/children_data_200.xlsx
+++ b/children_data_200.xlsx
@@ -458,4600 +458,4600 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Holly Johnson</t>
+          <t>Debra Keller</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>9775 Bradley Ridges
-Jordanside, MD 50288</t>
+          <t>6299 Heather Lake
+Port Williamview, SC 73037</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2013-06-24</t>
+          <t>2020-07-03</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>535-81-8792</t>
+          <t>724-41-6626</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Jennifer Miller</t>
+          <t>Jordan Arnold</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>USS Farley
-FPO AE 48587</t>
+          <t>06501 Andrews Wells Apt. 322
+Rodriguezport, AS 01191</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2020-03-11</t>
+          <t>2012-03-21</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>798-57-2318</t>
+          <t>023-14-4406</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Samuel Garcia</t>
+          <t>Shawn Wright</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>65518 Hannah Garden Apt. 212
-Bairdmouth, MT 25270</t>
+          <t>9623 Owens Spring Suite 518
+South Tina, AZ 32537</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2024-01-17</t>
+          <t>2013-03-13</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>122-70-7565</t>
+          <t>899-59-7298</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Derrick Harris</t>
+          <t>Alicia Rubio</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>661 Kristen Burgs
-Christianland, AS 02574</t>
+          <t>42468 Jessica Summit Apt. 695
+Berryland, SD 67025</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2011-08-13</t>
+          <t>2006-03-02</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>256-96-1620</t>
+          <t>406-47-3588</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Scott Roth</t>
+          <t>Luis Watkins</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>143 Kimberly Views Apt. 957
-Perezbury, IN 99499</t>
+          <t>985 Monica Curve
+Lake Robert, ME 12606</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2012-02-16</t>
+          <t>2013-04-21</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>389-24-0096</t>
+          <t>617-30-9543</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Julia Young</t>
+          <t>James Woodward</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2162 Murphy Street
-New John, ND 69376</t>
+          <t>911 Blackwell Wells Apt. 356
+West Michaelfort, UT 00836</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2017-09-25</t>
+          <t>2013-04-02</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>162-12-4131</t>
+          <t>651-97-7262</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>John Adams</t>
+          <t>Ryan Davis</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Unit 6158 Box 7953
-DPO AE 27347</t>
+          <t>Unit 2111 Box 3190
+DPO AE 68422</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2015-07-13</t>
+          <t>2007-09-05</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>474-27-9011</t>
+          <t>889-75-0145</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Manuel Monroe</t>
+          <t>Heather Harper</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>704 Aimee Drive Suite 116
-New Sarah, PA 57331</t>
+          <t>54189 Bush Stream
+New Andrewview, AS 48472</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2017-01-02</t>
+          <t>2009-02-08</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>189-24-1789</t>
+          <t>582-22-8622</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Kathleen Richardson</t>
+          <t>Stacy Obrien</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>5904 Herrera Camp Suite 533
-East Brianchester, PR 83123</t>
+          <t>51645 Aguilar Coves
+Lake Elizabeth, TX 72333</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2019-10-28</t>
+          <t>2011-12-10</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>803-55-2613</t>
+          <t>466-54-9373</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Mark Young</t>
+          <t>Donald Schneider</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>8829 Eduardo Field Suite 304
-East John, NE 51766</t>
+          <t>59474 Joseph Stream Apt. 140
+Danielburgh, CO 06105</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2021-10-21</t>
+          <t>2021-06-21</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>341-82-2398</t>
+          <t>568-41-6938</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Alicia Jones</t>
+          <t>Pamela Oliver</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>577 Katherine Spur
-Nicholaston, VI 24148</t>
+          <t>2293 Palmer Expressway
+Lake Jeffrey, OK 11275</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2015-10-07</t>
+          <t>2005-11-17</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>886-17-6775</t>
+          <t>206-80-9242</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Melissa Keith</t>
+          <t>Michael Schmidt</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>043 Nicholas Islands Apt. 522
-Owensstad, PA 97480</t>
+          <t>147 Tucker Plain Apt. 356
+Brownview, WA 98472</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2014-06-16</t>
+          <t>2020-05-22</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>391-19-4429</t>
+          <t>576-45-2986</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Christine Wilkinson</t>
+          <t>Edward Thomas</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>5976 William Islands
-Lake Susantown, NM 96914</t>
+          <t>3828 Mark Alley Apt. 947
+West Andrewstad, SC 66132</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2010-06-26</t>
+          <t>2015-02-10</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>575-88-9067</t>
+          <t>369-49-2837</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Carly Quinn</t>
+          <t>Amy Frost</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0569 Anderson Mill Suite 567
-Port Andrewport, LA 74866</t>
+          <t>068 George River Apt. 666
+West Scottborough, ID 93899</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2016-02-13</t>
+          <t>2009-11-19</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>333-38-7301</t>
+          <t>403-97-5381</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Derek Haney</t>
+          <t>Lisa Garrett</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2260 Hannah Turnpike
-Elizabethhaven, MI 09270</t>
+          <t>Unit 9778 Box 1083
+DPO AP 41061</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2012-08-07</t>
+          <t>2022-08-01</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>571-68-8915</t>
+          <t>020-69-8702</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Blake Harris</t>
+          <t>James Austin</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>264 Richard Green
-Lewisbury, AS 14970</t>
+          <t>68833 Spencer Expressway
+Stevensonberg, NC 94727</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2016-03-18</t>
+          <t>2009-02-22</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>301-62-4317</t>
+          <t>862-16-5225</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Debra Archer</t>
+          <t>Teresa Jones</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2831 Clay Shoals
-West Anthonytown, CO 03742</t>
+          <t>0605 Reid Hills
+Novakberg, WV 55046</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2023-09-21</t>
+          <t>2021-12-09</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>540-72-9373</t>
+          <t>353-22-4473</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Robert Weeks</t>
+          <t>Shelly Carr</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>4292 Carroll Cliff
-Port Joseph, WA 55391</t>
+          <t>91638 Stout Meadow
+Kevinfurt, IA 87258</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2019-11-09</t>
+          <t>2014-09-13</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>045-70-6286</t>
+          <t>230-54-9299</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Christopher Lloyd</t>
+          <t>Sharon Allen</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>99060 Alexander Lake
-Barbarastad, IA 09995</t>
+          <t>5004 Johnson Hill Apt. 526
+Jenniferbury, OH 82441</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2006-07-02</t>
+          <t>2008-12-07</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>852-25-8689</t>
+          <t>017-60-6563</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Brittany Stein</t>
+          <t>Steven Brown</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>94102 Adam Squares
-Kathryntown, AZ 50789</t>
+          <t>4257 Andrea Trail
+Lake Heatherville, DE 89490</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2011-02-17</t>
+          <t>2008-08-21</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>875-06-1945</t>
+          <t>019-90-9031</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Vickie Nelson</t>
+          <t>Justin Anderson</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>187 Hannah Via
-Davidberg, MH 53912</t>
+          <t>963 Coleman Views
+New Erin, WY 29195</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2017-10-14</t>
+          <t>2018-10-10</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>345-68-3834</t>
+          <t>199-64-3240</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>John Pugh</t>
+          <t>Michael Bullock</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>405 Stephanie Creek Suite 658
-Lake Jeffstad, ME 44068</t>
+          <t>193 Mendoza Villages
+Justinmouth, KY 36478</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2016-01-30</t>
+          <t>2008-10-16</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>253-52-9045</t>
+          <t>778-24-9573</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Cody George</t>
+          <t>Meghan Butler</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>946 Tom Road Suite 477
-Hayesmouth, OK 14422</t>
+          <t>263 John Camp Apt. 884
+Rogersborough, TN 56431</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2021-09-22</t>
+          <t>2019-08-05</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>765-21-4130</t>
+          <t>344-35-8523</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>John Pennington</t>
+          <t>Joanna Hopkins</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>5982 Morrison Cliffs Suite 034
-West Williamchester, ID 69908</t>
+          <t>5167 Michael Parkway Apt. 427
+Staffordburgh, VA 40731</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2007-11-01</t>
+          <t>2020-06-19</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>303-28-7623</t>
+          <t>855-80-1135</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Rachel Neal</t>
+          <t>Heather Brooks</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>86119 Brown Throughway
-Kramerfurt, VA 60289</t>
+          <t>30197 Lewis Corner Suite 964
+Annamouth, VA 18673</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2019-12-07</t>
+          <t>2017-07-11</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>277-37-4981</t>
+          <t>610-12-2839</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Tracy Davis</t>
+          <t>Eric Skinner</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>5713 Castaneda Street Apt. 936
-North Cesar, SD 61375</t>
+          <t>92305 Marvin Stravenue Suite 866
+Lauraton, VA 23693</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2024-07-21</t>
+          <t>2019-03-09</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>366-84-4371</t>
+          <t>059-64-5480</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Michelle Ward</t>
+          <t>John Carter</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>591 Floyd Junction
-Lake Patrick, NH 05959</t>
+          <t>8763 Sherri Fort
+Torresfort, WY 26684</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2019-04-25</t>
+          <t>2013-04-28</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>413-94-6179</t>
+          <t>742-34-4244</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Becky Miller</t>
+          <t>John Snyder</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>496 Oscar Neck
-Lake Ernestside, NM 36286</t>
+          <t>377 Cook Brooks Apt. 011
+South Jasontown, WA 69036</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2023-06-25</t>
+          <t>2019-09-08</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>863-01-3787</t>
+          <t>435-35-6182</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Amy Herring</t>
+          <t>Deborah Price</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>72242 Weber Crest
-Thompsonborough, NH 97851</t>
+          <t>7615 Gutierrez Drive
+Lake Sarah, FM 24915</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2018-12-24</t>
+          <t>2015-04-26</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>890-08-6296</t>
+          <t>343-90-3049</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>John Brooks</t>
+          <t>Kathy Woodward</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>5762 Stephanie Mews
-Russellland, ME 10126</t>
+          <t>04733 Gary Shoal
+Port Christinetown, FL 57558</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2020-04-28</t>
+          <t>2013-05-26</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>273-18-1950</t>
+          <t>462-63-3460</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Candice Reyes</t>
+          <t>Natalie Casey</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>7404 Hughes Island
-Williamport, MP 90583</t>
+          <t>1760 Amber Center
+Port Jenniferhaven, NY 25995</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2008-11-23</t>
+          <t>2009-04-28</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>537-14-6547</t>
+          <t>116-06-4434</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Karen Simpson</t>
+          <t>Roger Martin</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>6933 Brian River Suite 008
-Serranochester, VA 37899</t>
+          <t>61218 Dwayne Walk Suite 976
+Flemingside, DC 64296</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2020-02-19</t>
+          <t>2016-10-26</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>399-77-9842</t>
+          <t>672-89-1503</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Samantha Palmer</t>
+          <t>Daisy Jackson</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>820 Long Passage Apt. 483
-East Walterport, SD 52747</t>
+          <t>143 Spencer Parkways
+Bryanhaven, WA 26184</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2024-03-30</t>
+          <t>2012-06-02</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>354-32-0700</t>
+          <t>784-24-1431</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Michelle Schroeder</t>
+          <t>Kelly Wells</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>23797 Torres Throughway
-Turnerbury, CO 36603</t>
+          <t>394 Janet Squares Suite 768
+Brandonbury, ID 33109</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2008-08-11</t>
+          <t>2013-09-07</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>603-87-1348</t>
+          <t>382-27-8491</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Kimberly Adkins</t>
+          <t>Victoria Sullivan</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2816 Robert Drive Suite 098
-Montoyachester, GA 07798</t>
+          <t>9941 Cox Wells
+Port Michaelbury, IA 63335</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2005-11-04</t>
+          <t>2018-04-16</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>593-45-4403</t>
+          <t>085-23-0407</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Mary Craig</t>
+          <t>Eric Tanner</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>023 Patricia Flat Apt. 286
-Port Karen, CA 08047</t>
+          <t>44844 Hanson Prairie Suite 777
+Christopherfort, VI 37919</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2012-06-25</t>
+          <t>2015-03-06</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>545-91-4769</t>
+          <t>270-21-3498</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Timothy Nicholson</t>
+          <t>Lisa Williams</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>36817 Dawn Vista Suite 078
-Port Krista, AK 63240</t>
+          <t>55362 Carlos Tunnel Suite 842
+Wernerburgh, WY 09562</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2020-04-21</t>
+          <t>2010-09-26</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>417-53-0233</t>
+          <t>570-17-6034</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Jeffrey Winters</t>
+          <t>Tina Hopkins</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>144 Moss Locks
-Kristinaport, NC 81709</t>
+          <t>840 Hernandez Lane Apt. 556
+Evansland, FL 95201</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2007-05-19</t>
+          <t>2022-10-09</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>483-52-8475</t>
+          <t>349-50-9791</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Stefanie Wang</t>
+          <t>Stephanie Garza</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>590 Watts Port Apt. 922
-New Sherryburgh, NH 66464</t>
+          <t>1417 Perez Hollow Apt. 979
+North Markton, IL 82872</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2009-08-31</t>
+          <t>2013-01-06</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>253-01-9093</t>
+          <t>441-49-5374</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Kelly Guerrero</t>
+          <t>Ryan Cox</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>USNV Nguyen
-FPO AE 34044</t>
+          <t>PSC 6785, Box 1179
+APO AP 74789</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2020-03-27</t>
+          <t>2020-05-01</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>568-53-3464</t>
+          <t>840-68-2344</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Gabriela Gonzalez</t>
+          <t>Virginia Hodges</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>187 Cruz Vista
-North Michael, WA 27466</t>
+          <t>5609 Murphy Glen Apt. 120
+North Georgeville, MH 27458</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2008-06-12</t>
+          <t>2017-02-06</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>822-19-3364</t>
+          <t>510-31-0193</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Christopher Chang</t>
+          <t>Stephanie Gordon</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>9297 Johnny Brooks
-West Alexanderville, ME 40821</t>
+          <t>099 Kevin Parks
+Gloriabury, IL 42095</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2013-07-08</t>
+          <t>2016-11-07</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>893-63-4642</t>
+          <t>698-94-0490</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Gabriela Lin</t>
+          <t>Wendy Bradley</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>14541 Lisa Spurs Suite 663
-Lake Tinafort, KS 99454</t>
+          <t>29487 Stacy Field
+Davidfurt, GU 35914</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2007-08-12</t>
+          <t>2018-05-26</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>458-35-8731</t>
+          <t>386-72-1116</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Rebecca Garza</t>
+          <t>Donna Ali</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>588 Brooks Key Suite 462
-Robertsstad, ME 56603</t>
+          <t>6473 Sharon Crescent Suite 873
+Greeneshire, NJ 50911</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2024-07-29</t>
+          <t>2007-02-05</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>777-82-8052</t>
+          <t>605-50-4765</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Matthew Bradshaw</t>
+          <t>Sarah Cochran</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2263 King Mountain
-North Rebeccamouth, NM 88469</t>
+          <t>95652 Frazier Springs
+Connershire, FL 54634</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2012-04-14</t>
+          <t>2007-01-26</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>317-16-5881</t>
+          <t>326-22-5838</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Justin Schmidt</t>
+          <t>Colin Davis</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>973 Katherine Isle
-West Jamesville, MH 14085</t>
+          <t>027 Barnett Highway Suite 102
+Sarahmouth, MS 36094</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2016-11-06</t>
+          <t>2013-08-18</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>471-02-1653</t>
+          <t>107-30-8001</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Heather Martinez</t>
+          <t>Michael Bradshaw</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>608 Anthony Lodge Suite 951
-South Katelynside, NY 03359</t>
+          <t>8622 Peters Fort Suite 073
+West Kevinside, VI 57843</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2017-06-01</t>
+          <t>2016-10-12</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>735-14-0043</t>
+          <t>358-56-9031</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Jodi Hendrix</t>
+          <t>Mary Clark</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>399 Patterson Bypass
-Clarkfurt, KY 27380</t>
+          <t>803 Matthew Ville
+North Matthewside, NY 15425</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2019-11-29</t>
+          <t>2018-02-21</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>111-96-1921</t>
+          <t>179-51-2643</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Trevor Randolph</t>
+          <t>Brendan Morales</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>78200 Archer Burgs
-West Ryanport, VI 04602</t>
+          <t>0481 Mosley Fords
+Bowmanfurt, NV 38923</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2012-01-09</t>
+          <t>2007-05-04</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>480-99-5356</t>
+          <t>047-91-0809</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Jacqueline Kelly</t>
+          <t>Christopher Weiss</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>28185 Robin Wells Suite 604
-North Nancy, AL 63634</t>
+          <t>57699 Moran Village
+Port Charles, HI 32918</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2013-07-10</t>
+          <t>2019-04-06</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>642-39-9213</t>
+          <t>016-30-2811</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Brittney Peters</t>
+          <t>Rhonda Martinez</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0537 Jessica Expressway
-Stevenshire, UT 66301</t>
+          <t>885 James Lakes
+West Amanda, PA 24758</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2012-01-28</t>
+          <t>2009-10-17</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>462-69-6525</t>
+          <t>097-53-6631</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Jennifer Gutierrez</t>
+          <t>Jerry George</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>04395 Phillip Stream Suite 348
-Cabrerabury, KS 76450</t>
+          <t>744 Amy Rapid
+South Timothy, TN 39513</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2008-07-09</t>
+          <t>2010-08-15</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>808-81-9008</t>
+          <t>885-36-8477</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Nicole York</t>
+          <t>Christopher Bush</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>8215 Robbins Stream Suite 479
-Stevensonbury, NY 71251</t>
+          <t>7776 Jason Mews Apt. 306
+Wilkersonstad, WI 52038</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2007-02-17</t>
+          <t>2009-01-25</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>679-30-4630</t>
+          <t>692-40-5516</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Lisa Smith</t>
+          <t>Christine Graves</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>7709 Jessica Extension
-Johnsontown, OR 98876</t>
+          <t>28586 Katrina Views Suite 357
+Jenniferfurt, OK 85393</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2020-01-01</t>
+          <t>2018-11-07</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>870-47-7200</t>
+          <t>212-99-0011</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Shaun Patel</t>
+          <t>Henry Walsh</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>9468 Walls Trail Suite 449
-Gabrielfort, LA 22485</t>
+          <t>236 Robert Lake Apt. 037
+Deniseview, NH 55576</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>2011-12-09</t>
+          <t>2017-11-11</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>572-65-3572</t>
+          <t>254-12-5742</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Susan Murray</t>
+          <t>Maria Steele</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>288 Hanson Way
-Carterton, NJ 28264</t>
+          <t>474 Small Plains Suite 729
+Port Brianshire, CT 05210</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>2009-06-28</t>
+          <t>2012-01-10</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>882-49-8663</t>
+          <t>650-03-0201</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Lindsay Phillips</t>
+          <t>Jimmy Anderson</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>07745 Olson Brook
-South Theresafort, NV 67194</t>
+          <t>9496 Rodriguez Skyway Apt. 861
+Annaside, UT 12241</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>2020-02-13</t>
+          <t>2010-11-08</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>418-16-4040</t>
+          <t>821-64-5229</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Courtney Stewart</t>
+          <t>Christopher Stewart</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>USCGC Fox
-FPO AE 00925</t>
+          <t>4737 Graham Walk Apt. 560
+North Haley, MD 22003</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2009-02-11</t>
+          <t>2008-09-16</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>638-29-8177</t>
+          <t>885-17-8883</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Craig Cox</t>
+          <t>Jennifer Luna</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>223 Adams Hills
-West Russellburgh, MN 84489</t>
+          <t>364 Stephen Inlet Apt. 320
+Nicholsshire, ME 56132</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2023-07-20</t>
+          <t>2011-01-13</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>440-28-2123</t>
+          <t>514-77-7640</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Tracie Little</t>
+          <t>Amy Ashley</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>6664 Fisher Walks Suite 907
-Evansland, IN 58507</t>
+          <t>719 Torres Trail Apt. 858
+Coxbury, FM 62402</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>2009-05-21</t>
+          <t>2006-10-31</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>467-56-1213</t>
+          <t>159-46-0370</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Shirley Herman</t>
+          <t>Megan Clarke</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>10851 Smith Mountains Apt. 733
-Pachecobury, NM 41112</t>
+          <t>03795 Lee Neck Apt. 809
+Sherryton, IA 41858</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2020-01-12</t>
+          <t>2024-08-27</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>226-71-6745</t>
+          <t>887-39-4628</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Christopher Kirby</t>
+          <t>Kathy Edwards</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>8016 Toni Dale
-Woodbury, OH 91418</t>
+          <t>3588 Barnett Spur Apt. 576
+Lake Williamland, NV 51753</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2013-01-03</t>
+          <t>2007-06-06</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>294-48-1823</t>
+          <t>630-95-0436</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Janet Johnson</t>
+          <t>Cynthia Barber</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>266 Schmidt Isle
-Kennethchester, FM 71795</t>
+          <t>5241 Maurice Villages Apt. 901
+East Robert, MD 46628</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2007-07-11</t>
+          <t>2019-05-19</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>882-59-3289</t>
+          <t>578-61-7678</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Michael Roberts</t>
+          <t>Rebecca Weeks</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>69723 Arnold Rapid Suite 674
-Anthonyville, MA 50554</t>
+          <t>399 Hunter Throughway Suite 754
+South Samuelberg, NY 70213</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2020-06-03</t>
+          <t>2013-04-01</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>613-25-4857</t>
+          <t>313-61-6395</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Sophia Jones</t>
+          <t>Yesenia Williams</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>448 Madison Grove
-Anthonychester, MN 65788</t>
+          <t>185 Michelle Centers
+South Andrea, NE 53725</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>2015-01-05</t>
+          <t>2019-11-24</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>544-33-9341</t>
+          <t>519-47-2446</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Teresa Ingram</t>
+          <t>Ashley Pennington</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>981 Caleb Extension Suite 610
-North Thomaston, SD 65256</t>
+          <t>251 Christina Gardens Suite 233
+Port Douglas, SC 38275</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2006-01-08</t>
+          <t>2007-10-18</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>272-70-9950</t>
+          <t>095-04-1855</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>William Newman</t>
+          <t>Chad Davis</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>97899 Washington Roads Apt. 545
-Butlerport, DE 02532</t>
+          <t>779 Valerie Rapids Suite 818
+North Zacharyport, PA 90493</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>2010-10-09</t>
+          <t>2009-01-03</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>862-35-5497</t>
+          <t>777-67-8891</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Shannon Massey</t>
+          <t>Rita Robinson</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>7219 Alyssa Wall
-Lake Hannah, AZ 18410</t>
+          <t>894 Brown Forest Apt. 039
+Jordanfort, MI 82202</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>2022-02-01</t>
+          <t>2009-10-14</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>225-65-1061</t>
+          <t>243-26-6901</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Christopher Contreras</t>
+          <t>Ashley Rhodes</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>609 Carney Fort
-Livingstonmouth, NH 28356</t>
+          <t>9871 Jonathan Loop Suite 766
+West Nicoleburgh, OH 47968</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>2011-09-16</t>
+          <t>2011-06-27</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>598-98-4274</t>
+          <t>111-71-8383</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Steven Wilson</t>
+          <t>Tina Woodward</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>337 Poole Parkways
-East Carol, MH 09988</t>
+          <t>88295 Stephen Loaf
+South Tara, MI 60411</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>2021-01-24</t>
+          <t>2021-02-22</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>853-36-9956</t>
+          <t>598-99-4883</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Karen Greer</t>
+          <t>Joseph Ross</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>225 Vincent Island Suite 403
-Gonzalezfurt, AL 30635</t>
+          <t>77020 Schneider Trail
+New Reginaldbury, DC 72683</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>2011-12-26</t>
+          <t>2012-12-10</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>862-25-8751</t>
+          <t>134-04-8556</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Rebekah Pennington</t>
+          <t>Brandy Morgan</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>311 Davis Center Apt. 742
-Port Jacobside, VT 48564</t>
+          <t>390 Lewis Locks
+Lake Darrell, WA 84756</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>2020-06-19</t>
+          <t>2020-09-10</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>820-73-8194</t>
+          <t>273-81-0871</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Joshua Bird</t>
+          <t>Eric Edwards</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>460 Nichols Club
-Butlerland, OR 11485</t>
+          <t>7083 Sandoval Plaza Suite 056
+Careybury, MH 54386</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>2007-03-21</t>
+          <t>2018-04-27</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>202-31-1773</t>
+          <t>731-83-7451</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>William Pennington</t>
+          <t>Joshua Hall</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2214 Henry Plains Suite 621
-Marieland, MI 26029</t>
+          <t>356 Gregory Stream
+Port Thomas, TX 94419</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>2017-01-05</t>
+          <t>2019-05-17</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>776-82-2353</t>
+          <t>431-59-5361</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Chad Rodriguez</t>
+          <t>Brittany Small</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>3129 Rodriguez Prairie
-Adamsmouth, CT 22890</t>
+          <t>75089 Jonathan Avenue Suite 639
+New Nicholasmouth, MT 96348</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>2012-02-10</t>
+          <t>2006-04-28</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>349-57-1211</t>
+          <t>567-77-6820</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>David Lee</t>
+          <t>Christina Mclaughlin</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>5748 Peggy Terrace Suite 128
-Henrybury, NJ 92248</t>
+          <t>90894 Henry Turnpike
+East Deniseside, FL 47113</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>2022-08-31</t>
+          <t>2009-07-24</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>055-92-7091</t>
+          <t>750-30-7077</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Jose Morrison</t>
+          <t>Katherine Wagner</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>8106 Shelly Trace
-East Jerry, ME 02968</t>
+          <t>27393 Kimberly Village Suite 413
+Amystad, CT 02854</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>2007-05-01</t>
+          <t>2014-11-26</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>169-75-0211</t>
+          <t>802-25-5664</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Timothy Cordova</t>
+          <t>Crystal Russell</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>36631 Joseph Summit
-Curtischester, LA 33977</t>
+          <t>6117 Burns Hill
+Port Brenda, LA 29527</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>2018-05-29</t>
+          <t>2006-06-16</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>673-45-8394</t>
+          <t>062-62-3493</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Cynthia Cabrera</t>
+          <t>Carla Rose</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>4702 Mary Mission Suite 542
-Crawfordton, SC 93595</t>
+          <t>68206 Arroyo Canyon
+New Kathryn, WV 35747</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>2016-05-14</t>
+          <t>2005-11-29</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>041-69-9521</t>
+          <t>036-96-4795</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Ashley White</t>
+          <t>Alexis Lopez</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>7365 Noah Union Suite 830
-Lake Kathleen, MH 16471</t>
+          <t>16653 Gonzales Stravenue Apt. 441
+Warrenhaven, MO 10831</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>2016-08-11</t>
+          <t>2017-09-12</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>629-58-8446</t>
+          <t>679-74-8065</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Tiffany Castro</t>
+          <t>Lisa Williams</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>984 Rojas Estate
-Monicaside, MA 94884</t>
+          <t>12401 Walters Neck
+Brittneyberg, ND 55798</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>2014-07-14</t>
+          <t>2013-11-21</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>346-54-7415</t>
+          <t>525-14-4533</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Jeffrey Dixon</t>
+          <t>Jamie Moore</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>97338 Samuel Summit
-Lake Jessicafort, IL 25880</t>
+          <t>USNS King
+FPO AA 95541</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2009-03-20</t>
+          <t>2016-09-27</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>494-90-7063</t>
+          <t>607-54-4425</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Jesse Perez</t>
+          <t>Nicole Davis</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>9672 Lane Valleys
-Rebeccaside, NM 81612</t>
+          <t>587 Page Springs Apt. 682
+South Angelamouth, ME 28835</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>2006-03-01</t>
+          <t>2020-03-15</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>082-84-4710</t>
+          <t>582-16-2850</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Deanna Davis</t>
+          <t>Alan Hahn</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>PSC 2392, Box 8497
-APO AE 30317</t>
+          <t>55692 Carroll Grove Suite 969
+North Donaldmouth, NY 39736</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>2008-12-10</t>
+          <t>2013-12-28</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>622-91-8363</t>
+          <t>611-82-7717</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Kimberly Williams</t>
+          <t>Frank Schmidt</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>86267 Beth Parkway Apt. 708
-Millerton, AS 45016</t>
+          <t>920 Kelly Knolls Suite 661
+East Tina, AK 73635</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>2013-09-16</t>
+          <t>2009-04-22</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>695-11-0612</t>
+          <t>875-14-8297</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Jennifer Brown</t>
+          <t>John White</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>39654 Michael Mission Apt. 306
-Maynardmouth, MP 64195</t>
+          <t>942 Murphy Camp
+Jamesville, GU 29295</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>2016-10-12</t>
+          <t>2013-12-03</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>518-37-1916</t>
+          <t>035-91-1049</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Michelle Gonzalez</t>
+          <t>Joseph Morales</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>52593 Jones Course
-Hernandezberg, NC 13930</t>
+          <t>9915 Lopez Flats Apt. 275
+Lake Lori, DC 98963</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>2015-02-05</t>
+          <t>2021-07-07</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>576-99-4374</t>
+          <t>183-51-8139</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Kelli Johnson</t>
+          <t>Richard Anderson</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>63605 Ortiz Locks Suite 484
-North Travisside, ND 25933</t>
+          <t>9854 Shannon Knolls Suite 286
+Serranoberg, OH 30146</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>2018-09-06</t>
+          <t>2017-06-22</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>163-02-0067</t>
+          <t>331-81-6562</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Jeffrey Huffman</t>
+          <t>Jeffrey Johnson</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>822 Angela Highway
-Velasquezmouth, DC 78963</t>
+          <t>400 Ortega Squares Suite 763
+West Rickymouth, AK 26139</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>2007-04-18</t>
+          <t>2010-06-30</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>551-72-1752</t>
+          <t>635-92-7804</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Adam Henry</t>
+          <t>Paige Williams</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>64904 Steele View Apt. 197
-East Kristiebury, DC 81038</t>
+          <t>775 Mclaughlin Corners
+Tylerchester, MD 30855</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>2009-10-27</t>
+          <t>2014-09-08</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>460-43-6192</t>
+          <t>481-15-3871</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Paul Turner</t>
+          <t>Trevor Hudson</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>961 Wright Meadow Apt. 874
-New Josephberg, LA 89230</t>
+          <t>786 Allen Plaza Suite 540
+Port Richard, KS 51472</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>2017-07-09</t>
+          <t>2014-09-20</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>814-23-9572</t>
+          <t>305-16-4894</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Amber Nielsen</t>
+          <t>Emma Moore</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>49396 Darren Plains Apt. 310
-Haysstad, OR 43608</t>
+          <t>75440 Matthew Plaza
+Aprilview, PA 72929</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>2020-10-28</t>
+          <t>2015-11-22</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>381-02-4777</t>
+          <t>371-82-1053</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Patrick Jensen</t>
+          <t>Stephen Lee</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>32122 Thomas Plaza Suite 233
-Paulafurt, VI 08304</t>
+          <t>73127 Chang Track Apt. 550
+West Janebury, WA 57026</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>2016-10-06</t>
+          <t>2018-10-07</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>638-48-7748</t>
+          <t>215-96-6834</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Judith Mitchell</t>
+          <t>Christina Davenport</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>165 Samantha Ford
-New Jefferyburgh, WI 32850</t>
+          <t>4021 John Brook Suite 283
+Chavezmouth, DE 03768</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>2006-07-28</t>
+          <t>2010-10-13</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>528-65-5972</t>
+          <t>087-82-4254</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Kristi Knapp</t>
+          <t>Emily Preston</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>7273 Giles Run
-East Lauraton, LA 32246</t>
+          <t>6718 Meadows Union
+Johnsonmouth, ID 27824</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>2024-06-07</t>
+          <t>2022-12-04</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>089-73-5126</t>
+          <t>330-65-3020</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>James Johnson</t>
+          <t>Mark Dennis</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>80620 Wagner Passage
-North Timothyshire, AZ 85973</t>
+          <t>313 Garcia Parkway Apt. 668
+Lake Ashleyside, FL 98420</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>2007-06-14</t>
+          <t>2012-10-26</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>441-61-2469</t>
+          <t>130-89-8370</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Kimberly Stuart</t>
+          <t>Mary Richardson</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>89358 Elliott Walks
-West Patrick, ND 88641</t>
+          <t>96429 Mcdowell Unions Apt. 621
+Barnettborough, OR 22471</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>2007-02-05</t>
+          <t>2015-01-23</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>501-01-1260</t>
+          <t>311-46-8106</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Cheyenne Berry</t>
+          <t>Kimberly Johnson</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>USNS Singh
-FPO AA 93234</t>
+          <t>9999 Elizabeth Fort Apt. 959
+Port Brenttown, MI 59322</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>2019-07-17</t>
+          <t>2006-02-06</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>526-51-8971</t>
+          <t>571-53-7956</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Amanda Jones</t>
+          <t>William Yoder</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>62254 Williams Square Apt. 732
-Howellton, CO 31172</t>
+          <t>082 Barber Summit Apt. 392
+Lake Melissa, NV 73863</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>2021-12-03</t>
+          <t>2017-12-03</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>249-05-1950</t>
+          <t>713-62-9076</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Kelly Zuniga</t>
+          <t>Derek Taylor</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>39301 Johnson Burg Suite 070
-Margaretfort, RI 85612</t>
+          <t>236 Tammy Gateway
+Lake Peter, WV 18061</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>2007-02-20</t>
+          <t>2024-09-06</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>158-51-8589</t>
+          <t>671-01-4114</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Audrey Carter</t>
+          <t>Hailey Sanchez</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>5898 Carmen Roads Apt. 235
-Lake Jamesfort, DE 32674</t>
+          <t>6311 Sarah Drive
+Port Daleborough, WI 89738</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>2006-09-25</t>
+          <t>2020-02-22</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>839-26-6150</t>
+          <t>154-75-1758</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Angela Mccoy</t>
+          <t>Ryan Ray</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>206 Ricardo Mission Suite 225
-Port Samuel, SD 20114</t>
+          <t>12341 James Views Apt. 599
+North Darrellhaven, UT 75637</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>2012-05-03</t>
+          <t>2015-05-30</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>034-73-1472</t>
+          <t>554-82-2141</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Jeffrey Gonzalez</t>
+          <t>Nicole Sellers</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>54823 Lopez Track
-Lake Robertside, WI 58941</t>
+          <t>7742 Cook Mills
+Colleenburgh, AZ 52138</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>2006-12-25</t>
+          <t>2008-11-28</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>397-03-8744</t>
+          <t>272-94-6018</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Luis Jones</t>
+          <t>Fred Cruz</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Unit 1957 Box 5911
-DPO AP 72097</t>
+          <t>54365 Lopez Port Apt. 084
+Brendaton, AR 07374</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>2012-03-21</t>
+          <t>2019-03-25</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>414-66-9563</t>
+          <t>573-48-4237</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Tammie Howard</t>
+          <t>Shawn Harris</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>29930 Kendra Mills Apt. 425
-Barneshaven, SC 64341</t>
+          <t>05682 Megan Estates
+North Tina, MP 85595</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>2023-03-09</t>
+          <t>2017-12-14</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>668-21-6717</t>
+          <t>673-95-2717</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>James Schmidt</t>
+          <t>Lisa May</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>1920 Butler Station Apt. 588
-Lake Laura, VI 76280</t>
+          <t>3383 Brittney Divide
+Port Alanmouth, AR 49568</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>2011-03-29</t>
+          <t>2012-10-02</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>291-04-4678</t>
+          <t>143-57-9086</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Sara Salazar</t>
+          <t>William Murphy</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>7352 Mark Gateway
-Sloanland, CO 89377</t>
+          <t>5102 Stephen Skyway Suite 500
+Cynthiaport, NM 09440</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>2015-12-28</t>
+          <t>2006-11-25</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>378-03-9223</t>
+          <t>276-72-7751</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Barbara Potter</t>
+          <t>Kimberly Rodriguez</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>014 Miller Island
-Barreraton, AK 24855</t>
+          <t>1329 Hall Mews Apt. 434
+Jonesburgh, AZ 45492</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>2009-12-04</t>
+          <t>2016-03-18</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>744-79-4107</t>
+          <t>686-72-9153</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Amy Potter</t>
+          <t>Robert Fields</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>45993 David Port Suite 648
-Vanessastad, AZ 19936</t>
+          <t>505 Phillips Shoal
+Joneschester, AK 28005</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>2009-12-23</t>
+          <t>2013-04-16</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>019-49-4918</t>
+          <t>451-63-4779</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Amy Johnson</t>
+          <t>Dalton Carroll</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>52766 Amy Place Apt. 255
-Davidburgh, GU 32789</t>
+          <t>2127 Stephen Spur Apt. 624
+Morrisbury, MS 38867</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>2022-01-16</t>
+          <t>2010-10-05</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>866-98-1898</t>
+          <t>068-48-1349</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Patty Carter</t>
+          <t>Lisa White</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>158 Shannon Islands
-Baileyside, IA 37682</t>
+          <t>683 Castaneda Spring
+Port Jaime, CA 99660</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>2009-11-06</t>
+          <t>2009-02-15</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>199-83-5102</t>
+          <t>625-46-1534</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Megan Brennan</t>
+          <t>Tara Salazar</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>PSC 8392, Box 7037
-APO AP 69558</t>
+          <t>94973 Walters Forest Apt. 668
+Port Elizabeth, OH 06823</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>2008-05-29</t>
+          <t>2018-02-10</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>882-80-3460</t>
+          <t>669-82-5480</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>April Francis</t>
+          <t>Heidi Davis</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>6284 Ewing Prairie
-Wallacefort, FL 62595</t>
+          <t>USS Joseph
+FPO AE 63550</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>2018-05-02</t>
+          <t>2009-01-17</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>400-39-0270</t>
+          <t>026-33-2637</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Zachary Bauer</t>
+          <t>Brett Jacobs</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>0732 Marquez Fall Suite 232
-Cruztown, TN 19805</t>
+          <t>21328 Robert Stream Suite 530
+Kristashire, WA 02627</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>2021-10-24</t>
+          <t>2012-07-01</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>189-81-8173</t>
+          <t>240-07-5464</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Blake Jacobs</t>
+          <t>Jennifer Olson</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>6580 Brandon Stravenue Suite 086
-Bentonfort, MA 69039</t>
+          <t>705 Padilla Haven Apt. 712
+Jeffreytown, FL 09134</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>2007-02-05</t>
+          <t>2024-03-18</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>855-64-3956</t>
+          <t>565-69-7147</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Stacy Hill</t>
+          <t>Joanne Walker</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>30086 Michael Shores
-West Brucemouth, KY 81795</t>
+          <t>899 Edward Squares Apt. 189
+Port Brianna, IN 75019</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>2012-06-18</t>
+          <t>2024-09-21</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>718-06-2876</t>
+          <t>649-99-8690</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Ryan Harris</t>
+          <t>Joanne Harris</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>6027 Williams Green
-Erikaton, MT 71404</t>
+          <t>3489 Cynthia Cliff Suite 875
+Hollyland, NY 52330</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>2015-03-04</t>
+          <t>2016-10-04</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>721-59-4164</t>
+          <t>563-20-2182</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Kyle Smith</t>
+          <t>Jillian Ramirez</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>4701 Brian Cliffs
-Roblesborough, MN 93830</t>
+          <t>47824 Myers Drive
+Hillmouth, TX 89904</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>2007-11-08</t>
+          <t>2005-10-11</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>873-90-9656</t>
+          <t>288-38-4256</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Randall Diaz</t>
+          <t>Lucas Crawford</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>62800 Payne Park Suite 107
-Jameschester, IA 65775</t>
+          <t>Unit 3178 Box 6564
+DPO AA 94538</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>2014-07-30</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>778-83-9682</t>
+          <t>750-95-4390</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Maurice George</t>
+          <t>Margaret Norton</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>23013 Renee Street Suite 611
-Robertton, ND 79248</t>
+          <t>720 Daniel Lights
+North Stevenmouth, VA 95916</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>2022-02-03</t>
+          <t>2016-10-04</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>845-38-1175</t>
+          <t>266-71-1725</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Renee Zimmerman</t>
+          <t>Brenda Murphy</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>921 Hicks Curve Suite 643
-East Eric, IN 40884</t>
+          <t>PSC 0081, Box 2754
+APO AA 72948</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>2014-03-13</t>
+          <t>2022-12-22</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>459-56-0747</t>
+          <t>595-42-9283</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Nicholas Harper</t>
+          <t>Anna Campbell</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>867 Harold Passage Apt. 405
-North Tylerview, VT 47060</t>
+          <t>977 Barbara Falls
+West Rebecca, MN 58422</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>2007-11-05</t>
+          <t>2021-12-28</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>463-70-6501</t>
+          <t>418-89-7100</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Rodney Barnes</t>
+          <t>Timothy Reyes</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>05209 Derek Turnpike Apt. 868
-Lake Robert, GU 63097</t>
+          <t>1817 Melissa Motorway
+East Katherinebury, NV 86937</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>2016-09-21</t>
+          <t>2017-09-26</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>628-11-6812</t>
+          <t>262-29-1236</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Jessica Ramos</t>
+          <t>Julie Frost</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>4754 Smith Path
-South Jean, ID 46888</t>
+          <t>996 Krause Forges
+Roberthaven, VT 94988</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>2020-02-11</t>
+          <t>2024-06-12</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>616-43-5244</t>
+          <t>848-31-9005</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Kathleen Boyd</t>
+          <t>Nancy Dalton</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>873 Adams Courts Suite 454
-South Amber, IA 26403</t>
+          <t>260 Anne Inlet
+Carolynbury, MD 26145</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>2021-12-24</t>
+          <t>2015-07-14</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>329-78-9729</t>
+          <t>116-60-7146</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Patricia Wilkins</t>
+          <t>Kimberly White</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>622 Felicia Grove Suite 735
-Port Sonia, CO 35310</t>
+          <t>134 Patty Highway
+Kyleland, TX 11578</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>2023-04-29</t>
+          <t>2021-10-05</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>763-09-8325</t>
+          <t>084-84-8266</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Andrea Harris</t>
+          <t>Laurie Flores</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>5578 Brian Fort
-Aaronview, KS 86241</t>
+          <t>8629 Victoria Shoal
+Davidmouth, OK 49765</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>2022-05-08</t>
+          <t>2016-11-21</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>564-18-6335</t>
+          <t>848-09-4241</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Amanda Gregory</t>
+          <t>Stephanie Jones</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>7467 Kyle Island Apt. 953
-Larsenshire, TX 66583</t>
+          <t>69819 Becker Place
+South Sharonland, NH 26138</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>2007-08-06</t>
+          <t>2015-06-19</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>719-04-6295</t>
+          <t>304-26-0262</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Melissa French</t>
+          <t>Kim Simon</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>5458 Shelby Trafficway
-Lake Dwayneburgh, WV 23605</t>
+          <t>11953 Sheila Estate
+South Alan, TN 10477</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>2017-07-19</t>
+          <t>2010-09-12</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>437-38-9645</t>
+          <t>480-53-9849</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Laura Simpson</t>
+          <t>Anthony Holmes</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>6118 Barry Circles Apt. 692
-Rachelton, FL 58042</t>
+          <t>06373 Katie Drive Apt. 915
+Hensleyton, DC 63450</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>2008-10-17</t>
+          <t>2019-12-31</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>119-74-5713</t>
+          <t>001-73-6833</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Andrew Smith</t>
+          <t>Andres Jones</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>3701 Allison Shoal
-Port Kellyview, AL 50045</t>
+          <t>516 Chen Expressway Suite 062
+East Crystal, AZ 56212</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>2022-06-11</t>
+          <t>2010-04-05</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>557-62-7122</t>
+          <t>317-64-1634</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Wendy Knox</t>
+          <t>Sandra Jones</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>1691 Rogers Flat Suite 128
-Davisside, PA 49046</t>
+          <t>82143 Cynthia Mews Apt. 729
+North Lynnmouth, NH 09344</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>2007-12-07</t>
+          <t>2024-01-28</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>711-26-6578</t>
+          <t>002-04-8465</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>John Sims</t>
+          <t>Fernando Simmons</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>166 James Green
-Kevinhaven, OR 00928</t>
+          <t>9318 Sanders Extension Suite 969
+South Lonniestad, DE 19423</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>2011-05-01</t>
+          <t>2020-08-20</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>797-51-6990</t>
+          <t>713-96-8765</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Jeffrey Blair</t>
+          <t>Tara Juarez</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>7510 Braun Ways
-West Jessicaport, FL 55744</t>
+          <t>92400 Kristen Neck Apt. 861
+New Nicholaston, GU 20296</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>2017-05-09</t>
+          <t>2007-05-21</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>734-74-6351</t>
+          <t>876-27-5748</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Caitlin Porter</t>
+          <t>Deborah Foster</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Unit 6083 Box 4736
-DPO AA 74097</t>
+          <t>593 Thomas Forge
+Douglasshire, IA 23929</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>2007-03-02</t>
+          <t>2019-12-15</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>539-55-0860</t>
+          <t>027-66-6201</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Matthew Dixon</t>
+          <t>Frank Brown</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>55949 Ramos Ferry Apt. 901
-Laurietown, GU 99286</t>
+          <t>495 Sullivan Trace
+Lowehaven, PR 10448</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>2017-05-16</t>
+          <t>2023-08-31</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>391-51-8467</t>
+          <t>116-67-2538</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Valerie Smith</t>
+          <t>Laura Johnson</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>69638 Kevin Locks Suite 650
-Morenoborough, GU 91186</t>
+          <t>177 Larson Brook
+Hallborough, VI 51185</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>2016-08-08</t>
+          <t>2012-05-30</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>165-90-9743</t>
+          <t>344-34-0118</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>David Schwartz</t>
+          <t>Kimberly Dunn</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>307 Johnson Trafficway Apt. 158
-Nicholasside, CO 93531</t>
+          <t>57675 Ryan Mountains
+West Thomashaven, PW 97799</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>2009-01-23</t>
+          <t>2012-01-02</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>163-50-0690</t>
+          <t>191-20-6902</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Juan Johnson</t>
+          <t>Mark Mclean</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>1968 Rhonda Dale
-North Gina, VI 30943</t>
+          <t>735 Hardy Creek
+East Stephenmouth, SC 02378</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>2013-10-04</t>
+          <t>2012-01-06</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>334-32-1778</t>
+          <t>372-81-2003</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Jessica Diaz</t>
+          <t>Karen Gallagher</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>78693 Ward Tunnel Suite 990
-Thompsonfort, DE 58072</t>
+          <t>020 Christy Plains Suite 330
+Henryfort, ND 76816</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>2020-11-19</t>
+          <t>2015-02-13</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>567-04-7618</t>
+          <t>362-48-9556</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Christopher Johnson</t>
+          <t>Kristina Swanson</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>PSC 8985, Box 0599
-APO AE 32920</t>
+          <t>68275 Brown Creek
+Vickistad, ME 02157</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>2008-08-08</t>
+          <t>2010-01-30</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>323-50-2318</t>
+          <t>035-42-5260</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Mark Willis</t>
+          <t>Katherine Weber</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>984 Alexandra Unions
-New Kelly, WI 12953</t>
+          <t>USNS Cook
+FPO AA 92312</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>2006-02-09</t>
+          <t>2018-01-23</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>331-29-6245</t>
+          <t>320-27-0651</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Daniel Brown</t>
+          <t>Julia Jensen</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>511 Theresa Garden
-Lopezchester, FM 21509</t>
+          <t>009 Small Harbors Suite 847
+South Brandon, HI 73340</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>2011-12-13</t>
+          <t>2012-12-04</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>451-56-8863</t>
+          <t>809-49-2600</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Seth Tucker</t>
+          <t>Erica Russo</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>5120 Johnson Pines Suite 720
-North Kathychester, WI 00809</t>
+          <t>260 Tammy Passage Apt. 276
+Jenniferhaven, MI 46948</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>2016-10-13</t>
+          <t>2011-09-05</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>140-43-9809</t>
+          <t>432-31-4032</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Kathy Mercado</t>
+          <t>Natalie Collins</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>027 Dawn Avenue
-Thompsonmouth, LA 73776</t>
+          <t>802 Barton Loaf
+Petersview, NV 47909</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>2012-08-14</t>
+          <t>2020-09-13</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>674-34-3374</t>
+          <t>696-22-9517</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Jonathan Mendez</t>
+          <t>Gabrielle Perry</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>0667 Smith Canyon Apt. 421
-Stephensland, RI 26900</t>
+          <t>958 Christine Road
+Rebeccaberg, RI 73309</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>2023-01-28</t>
+          <t>2021-07-19</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>142-61-6674</t>
+          <t>179-23-5068</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Joseph Bean</t>
+          <t>Daniel Haynes</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>544 Ashley Extensions Suite 546
-New Adrienne, VI 02800</t>
+          <t>56456 Benitez Ferry Suite 352
+West Ian, PR 58960</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>2022-05-11</t>
+          <t>2021-09-30</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>319-57-9546</t>
+          <t>805-95-0381</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Becky Morgan</t>
+          <t>Emily Hill</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>445 Figueroa Port Apt. 790
-Louiston, MT 17391</t>
+          <t>16906 Wolfe Trail Suite 659
+Thompsonview, OK 89095</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>2006-05-12</t>
+          <t>2012-04-22</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>579-61-6020</t>
+          <t>327-60-7193</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Eileen Ramos</t>
+          <t>Brandi Walker</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>806 Harrison Springs Suite 021
-West Cameronburgh, IL 21775</t>
+          <t>48032 Andrew Lane
+Patelfort, WA 34330</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>2007-02-17</t>
+          <t>2007-08-08</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>057-56-5358</t>
+          <t>058-97-6371</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Kirsten Brown</t>
+          <t>Edward Petersen</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>0463 Brock Station Apt. 774
-South Peterside, NY 65492</t>
+          <t>42504 Nicole Wall
+West Alexandria, PA 45720</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>2013-02-01</t>
+          <t>2009-03-05</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>262-35-6751</t>
+          <t>149-93-7918</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Sheri Nguyen</t>
+          <t>Shawn Ruiz</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>50513 Melissa Hills
-South Teresa, LA 22855</t>
+          <t>524 Delgado Path
+Dukemouth, KY 85187</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>2013-11-12</t>
+          <t>2007-05-10</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>040-48-3160</t>
+          <t>006-64-2928</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Janice Hopkins</t>
+          <t>Linda Smith</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>544 Kathy Street
-West Rickey, CT 20031</t>
+          <t>772 Allison Gateway
+South Timothyfurt, IA 11849</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>2006-03-11</t>
+          <t>2006-08-16</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>595-83-0057</t>
+          <t>405-27-6096</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Mckenzie Choi</t>
+          <t>Connie Henderson</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>221 Gross Shoal Suite 531
-Port Briana, GA 92040</t>
+          <t>99210 Laura Vista Suite 007
+West Sandra, TN 54263</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>2012-06-28</t>
+          <t>2015-03-30</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>730-22-2097</t>
+          <t>694-11-1570</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Raymond Barker</t>
+          <t>Robin Mitchell</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>4608 Ellis Center Suite 627
-West Craig, TX 95895</t>
+          <t>7358 Kathryn Views Apt. 852
+Lake Nicholas, MH 97880</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>2009-09-17</t>
+          <t>2017-08-13</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>589-30-9706</t>
+          <t>583-46-3535</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Miranda Dixon</t>
+          <t>Megan Cordova</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>7252 Michael Mountain Suite 911
-Shannonview, MA 81219</t>
+          <t>2405 Vincent Mount
+Martinezfurt, ND 21644</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>2014-07-04</t>
+          <t>2022-09-10</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>327-78-2347</t>
+          <t>862-21-0042</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Anthony Li</t>
+          <t>Bob Hughes</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Unit 0799 Box 7718
-DPO AA 29715</t>
+          <t>071 Rachael Shoal Apt. 886
+North Angelside, AZ 09160</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>2012-05-03</t>
+          <t>2018-12-13</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>880-35-9913</t>
+          <t>486-29-5182</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Paul Beck</t>
+          <t>Adrian Schroeder</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>74306 Tonya Fort
-Brittanybury, CO 24057</t>
+          <t>8851 Carroll Isle Apt. 827
+Clementsborough, LA 65714</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>2013-06-12</t>
+          <t>2022-08-13</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>047-19-1772</t>
+          <t>427-82-1178</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Christine Hayden</t>
+          <t>Brian Friedman</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>PSC 7677, Box 4593
-APO AE 27438</t>
+          <t>332 Jared Port Apt. 178
+East Steven, VA 58436</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>2006-06-19</t>
+          <t>2015-10-31</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>089-03-7753</t>
+          <t>130-13-8371</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Renee Burgess</t>
+          <t>Kimberly Contreras</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>95580 Samuel Flats
-South Terry, DE 02894</t>
+          <t>8789 William Pass
+Santosfort, PW 79961</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>2021-09-18</t>
+          <t>2015-06-02</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>118-84-0274</t>
+          <t>268-56-6288</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Margaret Franklin</t>
+          <t>Brian Franco</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>USNS Shields
-FPO AA 13834</t>
+          <t>2831 Eric Crossing
+New Thomasview, MA 34728</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>2011-12-26</t>
+          <t>2017-02-28</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>233-52-8201</t>
+          <t>024-30-2300</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Vanessa Rodriguez</t>
+          <t>Eric David</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>236 Kathleen Cove Suite 975
-Port Jessica, MT 54321</t>
+          <t>6521 Ricardo Centers Suite 881
+East Shannonville, TX 62765</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>2015-07-15</t>
+          <t>2014-06-13</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>158-13-6950</t>
+          <t>716-13-3522</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Shannon Pennington</t>
+          <t>Amanda Park</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>580 Katie Ports Apt. 718
-Michelletown, CA 21697</t>
+          <t>44486 Bolton Hills Suite 663
+West Keithstad, WV 52481</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>2018-02-16</t>
+          <t>2019-04-21</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>314-06-8879</t>
+          <t>806-18-4245</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Frank Dunn</t>
+          <t>Adam Williams</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>84116 Palmer Highway
-North Leviport, MO 34207</t>
+          <t>129 Contreras Ways Suite 284
+North Nathanfort, WY 78207</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>2024-06-11</t>
+          <t>2008-06-22</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>882-67-9405</t>
+          <t>899-83-1051</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Kyle Rasmussen</t>
+          <t>Ashley Rhodes</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>8162 Sharon Track Apt. 195
-Lake Dawnhaven, IL 75877</t>
+          <t>979 Shelton Ranch Suite 080
+Rodriguezton, VA 37308</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>2018-10-22</t>
+          <t>2014-09-26</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>049-31-5480</t>
+          <t>015-11-2825</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Emily Brown</t>
+          <t>Michele Lozano</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>USNS Curtis
-FPO AP 42021</t>
+          <t>745 Hanson Grove Apt. 740
+Wilsonburgh, ID 74086</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>2007-06-19</t>
+          <t>2022-08-23</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>036-70-5132</t>
+          <t>418-24-2319</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>David Hudson</t>
+          <t>Leslie Baker</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>31639 Karen Valley Suite 133
-Tylerport, OK 08718</t>
+          <t>76575 Nguyen Lights
+New Carolyn, WI 39722</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>2010-10-21</t>
+          <t>2020-11-20</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>327-66-9701</t>
+          <t>532-32-5627</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Latoya Mcgee</t>
+          <t>Jennifer Smith</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>PSC 8965, Box 6846
-APO AE 94091</t>
+          <t>832 William Throughway
+Lake Sheryl, FM 52368</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>2015-03-06</t>
+          <t>2015-08-07</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>446-91-4193</t>
+          <t>398-65-9467</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Barry Campbell</t>
+          <t>Carol Sullivan</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>282 Levy Place Apt. 861
-Saunderston, PW 24355</t>
+          <t>614 Harris Trail
+Westhaven, VI 12534</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>2006-11-26</t>
+          <t>2020-03-21</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>008-64-0321</t>
+          <t>155-37-8791</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Francisco Rodriguez</t>
+          <t>Robert Caldwell</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>051 Yolanda Fall Apt. 042
-New Adam, WI 53878</t>
+          <t>10570 Erin Court
+New Rachelport, NE 91902</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>2023-11-10</t>
+          <t>2020-06-02</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>151-81-1727</t>
+          <t>385-70-2008</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>James Wells</t>
+          <t>Robert Simmons</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>6515 Jessica Plaza Suite 579
-Anthonyside, AZ 91172</t>
+          <t>81402 Anna Isle
+Briggsshire, PA 37089</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>2015-10-11</t>
+          <t>2008-04-09</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>254-44-6492</t>
+          <t>887-35-6522</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Shannon Robles</t>
+          <t>Heather Larson</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>850 Ray Neck
-Collinsstad, HI 81456</t>
+          <t>5814 Troy Isle
+West Lisa, KS 44810</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>2017-10-14</t>
+          <t>2013-10-24</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>829-66-1043</t>
+          <t>675-33-4412</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Nicholas Williamson</t>
+          <t>Alice Barnes</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>9176 Shaun Stream Apt. 399
-East Aaronstad, GA 78020</t>
+          <t>1008 Calvin Burgs
+Antonioville, IL 75449</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>2014-10-31</t>
+          <t>2014-12-17</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>448-19-3059</t>
+          <t>871-01-1491</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Debra Wood</t>
+          <t>Joshua Jones</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>2196 Richard Drive Suite 271
-Lake Deniseville, FL 46021</t>
+          <t>894 Jessica Pines Apt. 232
+New Brianville, RI 57472</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>2011-09-04</t>
+          <t>2022-07-28</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>394-73-8006</t>
+          <t>304-79-4389</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Thomas Riley</t>
+          <t>Walter Young</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>3108 Kevin Harbors
-Douglasbury, NE 45516</t>
+          <t>1870 Ryan Points
+Tiffanyview, WA 73248</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>2020-05-11</t>
+          <t>2006-10-29</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>445-82-8395</t>
+          <t>384-28-9401</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Steven Cox</t>
+          <t>Debra Powell</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>52119 Gina Corners
-West Frances, IA 14391</t>
+          <t>453 Lutz Causeway
+Boyleshire, IL 69792</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>2018-04-18</t>
+          <t>2007-10-18</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>828-53-5529</t>
+          <t>049-95-5179</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Betty Butler</t>
+          <t>Austin Barnes</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>15155 White Glens Suite 941
-Carrieville, OR 79130</t>
+          <t>3047 Christina Fall
+Phillipbury, TN 03227</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>2012-05-06</t>
+          <t>2023-12-31</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>781-02-7071</t>
+          <t>081-83-8480</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Alexandria Scott</t>
+          <t>Jennifer Lee</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>55966 Alexis Harbor Suite 183
-East Michael, MP 99666</t>
+          <t>62731 Steven Port
+Mitchellbury, NY 72800</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>2018-03-19</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>737-40-0616</t>
+          <t>232-39-6488</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Brooke Wilkerson</t>
+          <t>Daniel Fisher</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>36907 Wilson Knoll Apt. 135
-Munozmouth, ID 08403</t>
+          <t>87530 Johnson Way
+Monicamouth, ID 15827</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>2020-04-29</t>
+          <t>2020-09-01</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>543-07-1125</t>
+          <t>445-57-2472</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Craig Rubio</t>
+          <t>Kristina Johnston</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>48918 Aguirre Forks Apt. 068
-Lake Ronaldborough, MH 19774</t>
+          <t>73793 Robert Roads
+Johnsonborough, SC 01204</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>2008-05-20</t>
+          <t>2011-09-06</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>280-36-6286</t>
+          <t>382-13-2099</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Samantha Phillips</t>
+          <t>Danielle Ayers</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>3374 Peter Pine
-South Angela, LA 23830</t>
+          <t>5889 Green Mill
+South Nicoleton, MH 41397</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>2016-10-21</t>
+          <t>2013-02-17</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>315-45-8798</t>
+          <t>630-92-8325</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Randall Browning</t>
+          <t>Courtney Alvarado</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Unit 6823 Box 1111
-DPO AA 06257</t>
+          <t>84245 Lewis Pine Apt. 789
+Lunaborough, GU 89848</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>2021-09-29</t>
+          <t>2013-09-11</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>498-41-7488</t>
+          <t>604-67-8104</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Kim Gallegos</t>
+          <t>Anna Thomas</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>33817 Phillip Isle Suite 477
-Courtneyburgh, MO 23581</t>
+          <t>PSC 4849, Box 5078
+APO AP 96403</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>2007-07-06</t>
+          <t>2010-03-23</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>369-12-0055</t>
+          <t>390-88-1783</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Robert Hickman</t>
+          <t>Rachel Gomez</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>1700 Bates Rue
-Port Lori, MT 40785</t>
+          <t>7025 Davidson Roads Suite 535
+Johnsonshire, MP 55199</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>2022-04-15</t>
+          <t>2005-10-04</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>645-99-8798</t>
+          <t>351-16-0708</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Stephen Obrien</t>
+          <t>John Moore</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>PSC 8778, Box 2260
-APO AE 85249</t>
+          <t>87902 Laura Cove
+Diazport, OH 03940</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>2015-06-03</t>
+          <t>2011-08-02</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>469-23-5331</t>
+          <t>133-05-1889</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Gerald Miller</t>
+          <t>Heidi Aguilar</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>14107 Stephanie Ville
-Lindaberg, MI 03919</t>
+          <t>18619 Andrew Loop
+Birdview, RI 98866</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>2010-11-19</t>
+          <t>2018-03-27</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>337-07-0432</t>
+          <t>542-16-1198</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>David Odonnell</t>
+          <t>Patricia Vasquez</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>9245 Tanner Loop
-Lake Sara, DC 46275</t>
+          <t>238 Leon Falls Suite 301
+Henryfurt, PA 87702</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>2006-01-11</t>
+          <t>2019-09-21</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>189-12-8114</t>
+          <t>399-90-3267</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Aaron Murray</t>
+          <t>Luis Shaw</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>79550 Jay Turnpike Apt. 131
-West Lisaburgh, PW 47418</t>
+          <t>2445 Terrell Field Apt. 377
+Johnburgh, PA 37638</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>2020-06-28</t>
+          <t>2023-11-15</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>831-84-3598</t>
+          <t>842-85-1396</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>David Smith</t>
+          <t>Michael White</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>1832 Emily Prairie Suite 229
-North Justintown, MP 96510</t>
+          <t>USNS Benjamin
+FPO AE 06485</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>2022-07-21</t>
+          <t>2013-02-11</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>325-38-1927</t>
+          <t>247-28-8923</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Jessica Christensen</t>
+          <t>Tony Johnson</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>3114 Thomas Square
-North Wanda, WY 67188</t>
+          <t>5861 Cortez Points
+Tarafurt, WV 61815</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>2024-03-02</t>
+          <t>2014-01-30</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>787-98-7253</t>
+          <t>642-97-6871</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Alexandra Ross</t>
+          <t>Christopher Anderson</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>0976 Matthews Glen
-Bowenland, TX 51535</t>
+          <t>9259 David Brooks Apt. 448
+South Tracyside, MS 57548</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>2021-12-10</t>
+          <t>2023-08-11</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>588-72-7407</t>
+          <t>242-87-4996</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Linda Anderson</t>
+          <t>Stephanie Fernandez</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>0206 Brady Ridges
-Antonioport, NE 60634</t>
+          <t>7448 Mueller Burgs
+Brownfort, TX 50946</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>2017-06-18</t>
+          <t>2009-09-18</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>276-61-8182</t>
+          <t>874-73-6426</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Gregory Jackson</t>
+          <t>Leslie Ramirez</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>74404 Katherine Island
-West Ricardo, IA 47278</t>
+          <t>Unit 4544 Box 2744
+DPO AP 74476</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>2015-11-25</t>
+          <t>2017-08-05</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>068-39-9052</t>
+          <t>709-19-2085</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>John Goodwin</t>
+          <t>Lisa Nichols</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>828 James Groves Suite 046
-Stoneland, AR 72731</t>
+          <t>900 Timothy Fords
+West Jerryborough, AR 91801</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>2012-01-01</t>
+          <t>2011-04-19</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>479-61-9155</t>
+          <t>474-20-9135</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Patricia Shannon</t>
+          <t>Victoria Scott</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>4682 Joshua Fall Suite 569
-South Caleb, WV 91450</t>
+          <t>960 Chung Heights
+North Devin, IL 46788</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>2009-07-13</t>
+          <t>2011-12-23</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>417-19-3493</t>
+          <t>102-19-1600</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Joshua English</t>
+          <t>Katrina Soto</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>75308 Andrew Trace
-Tonyaville, AR 90910</t>
+          <t>5494 Valentine Inlet Suite 897
+North Brianfort, UT 30157</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>2022-10-18</t>
+          <t>2008-05-05</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>848-23-5752</t>
+          <t>775-96-2663</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Kelsey Smith</t>
+          <t>Joseph Davis</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Unit 8206 Box 3279
-DPO AA 25789</t>
+          <t>1280 Bowen Street Apt. 529
+Schroederville, WI 27531</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>2023-02-12</t>
+          <t>2014-10-06</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>869-02-2939</t>
+          <t>160-74-1521</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Jill Reed</t>
+          <t>Scott White</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>609 Oliver Burgs Suite 648
-South Theodore, WI 65981</t>
+          <t>60038 Lynch Islands
+North Matthew, AL 44912</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>2006-04-14</t>
+          <t>2009-08-30</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>076-82-6312</t>
+          <t>312-21-7927</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Patrick Rich</t>
+          <t>Brenda West</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>71887 Liu Radial
-Lake Patricia, MO 72020</t>
+          <t>1915 Wendy Rue Suite 530
+Jonathanmouth, OK 23483</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>2012-04-13</t>
+          <t>2011-09-26</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>321-96-8647</t>
+          <t>628-99-8672</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Jon White</t>
+          <t>Alexander Allen</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>685 Randy Place Suite 368
-Melissaside, ID 92408</t>
+          <t>4581 Monica Expressway Apt. 595
+Ramosville, NY 78355</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>2021-08-10</t>
+          <t>2018-08-20</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>286-66-7860</t>
+          <t>705-65-8443</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Sarah Collins</t>
+          <t>Melissa Wilson</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>65520 Miguel Avenue Apt. 635
-South Joanne, PR 15311</t>
+          <t>401 Palmer Square Apt. 055
+Chasemouth, IL 11762</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>2009-06-08</t>
+          <t>2020-11-14</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>124-30-0349</t>
+          <t>234-06-9805</t>
         </is>
       </c>
     </row>
